--- a/biology/Zoologie/Calceolispongiidae/Calceolispongiidae.xlsx
+++ b/biology/Zoologie/Calceolispongiidae/Calceolispongiidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Calceolispongiidae sont une famille fossile de crinoïdes de l'ordre des Ampelocrinida.
 </t>
@@ -511,7 +523,9 @@
           <t>Stratigraphie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon Fossilworks, les espèces des différents genres se retrouvent dans des terrains datant du Carbonifère au Permien, avec une répartition mondiale. 
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (24 avril 2024)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (24 avril 2024) :
 † Allosocrinus Strimple, 1949
 † Calceolispongia Gerth, 1936 - genre type
 † Dinocrinus Wanner, 1916
@@ -579,11 +595,48 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom valide de ce taxon est †Calceolispongiidae Teichert (d), 1954[2].
-Publication originale
-(en) Curt Teichert, « A new Permian crinoid from western Australia », Journal of Paleontology, États-Unis, vol. 28,‎ janvier 1954, p. 70-75 (ISSN 0022-3360, e-ISSN 1937-2337, JSTOR 1300210).</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est †Calceolispongiidae Teichert (d), 1954.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Calceolispongiidae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Calceolispongiidae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(en) Curt Teichert, « A new Permian crinoid from western Australia », Journal of Paleontology, États-Unis, vol. 28,‎ janvier 1954, p. 70-75 (ISSN 0022-3360, e-ISSN 1937-2337, JSTOR 1300210).</t>
         </is>
       </c>
     </row>
